--- a/biology/Botanique/Alpinia_arctiflora/Alpinia_arctiflora.xlsx
+++ b/biology/Botanique/Alpinia_arctiflora/Alpinia_arctiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia arctiflora  est une espèce de plantes à fleurs du genre Alpinia et de la famille des Zingiberaceae. C'est une plante herbacée vivace endémique du Nord-Est du Queensland en Australie.
 Elle pousse dans la forêt humide depuis le niveau de la mer jusqu'à une altitude de 1 150 m.
-Le botaniste britannique George Bentham, assisté du Baron Ferdinand von Müller, en a publié la description en anglais en 1873 dans le Volume 6, page 265 de son ouvrage Flora Australiensis[1].
-Ferdinand von Müller, avait publié la description en latin de cette espèce sous le nom de Hellenia arctiflora" F.Muell en 1873 dans le volume 8 page 25 de son ouvrage "Fragmenta phytographiæ Australiæ"[2].
+Le botaniste britannique George Bentham, assisté du Baron Ferdinand von Müller, en a publié la description en anglais en 1873 dans le Volume 6, page 265 de son ouvrage Flora Australiensis.
+Ferdinand von Müller, avait publié la description en latin de cette espèce sous le nom de Hellenia arctiflora" F.Muell en 1873 dans le volume 8 page 25 de son ouvrage "Fragmenta phytographiæ Australiæ".
 </t>
         </is>
       </c>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,6 +555,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +583,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +610,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits en sont mangés par les Casoars. (Cooper &amp; Cooper (1994))
 </t>
@@ -623,7 +643,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hellenia arctiflora F.Muell
 </t>
